--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -64,36 +67,33 @@
     <t>wrong</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -112,12 +112,15 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -145,22 +151,19 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +535,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,10 +596,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,10 +696,10 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.725</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5555555555555556</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.775</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.55</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.3958333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6304347826086957</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.3220338983050847</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6170212765957447</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2513661202185792</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>822</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5769230769230769</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.2295081967213115</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.1263157894736842</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>83</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1290,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.05555555555555555</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1332,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>510</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1340,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -1358,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.04240282685512368</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1417,13 @@
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.03812316715542522</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>328</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1440,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1794871794871795</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1458,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.03409090909090909</v>
+        <v>0.03812316715542522</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>595</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1517,13 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.02409638554216868</v>
+        <v>0.03162650602409638</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1543,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.02246543778801843</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1697</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,13 +1569,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.0204865556978233</v>
+        <v>0.02432778489116517</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1584,7 +1587,33 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>765</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0.02188940092165899</v>
+      </c>
+      <c r="L24">
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <v>38</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
